--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Calr-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Calr-Itgav.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>81.03634266666667</v>
+        <v>68.443746</v>
       </c>
       <c r="H2">
-        <v>243.109028</v>
+        <v>205.331238</v>
       </c>
       <c r="I2">
-        <v>0.1632931649012984</v>
+        <v>0.1596169534001499</v>
       </c>
       <c r="J2">
-        <v>0.1632931649012984</v>
+        <v>0.1596169534001499</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N2">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O2">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P2">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q2">
-        <v>1244.624275226735</v>
+        <v>645.0037554441741</v>
       </c>
       <c r="R2">
-        <v>11201.61847704062</v>
+        <v>5805.033798997567</v>
       </c>
       <c r="S2">
-        <v>0.01652596746466431</v>
+        <v>0.0106214488554383</v>
       </c>
       <c r="T2">
-        <v>0.01652596746466432</v>
+        <v>0.0106214488554383</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>81.03634266666667</v>
+        <v>68.443746</v>
       </c>
       <c r="H3">
-        <v>243.109028</v>
+        <v>205.331238</v>
       </c>
       <c r="I3">
-        <v>0.1632931649012984</v>
+        <v>0.1596169534001499</v>
       </c>
       <c r="J3">
-        <v>0.1632931649012984</v>
+        <v>0.1596169534001499</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>151.777694</v>
       </c>
       <c r="O3">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P3">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q3">
-        <v>4099.836406713493</v>
+        <v>3462.744645533908</v>
       </c>
       <c r="R3">
-        <v>36898.52766042143</v>
+        <v>31164.70180980517</v>
       </c>
       <c r="S3">
-        <v>0.05443712164094712</v>
+        <v>0.05702193954925668</v>
       </c>
       <c r="T3">
-        <v>0.05443712164094712</v>
+        <v>0.05702193954925668</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>81.03634266666667</v>
+        <v>68.443746</v>
       </c>
       <c r="H4">
-        <v>243.109028</v>
+        <v>205.331238</v>
       </c>
       <c r="I4">
-        <v>0.1632931649012984</v>
+        <v>0.1596169534001499</v>
       </c>
       <c r="J4">
-        <v>0.1632931649012984</v>
+        <v>0.1596169534001499</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N4">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O4">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P4">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q4">
-        <v>2060.933878597139</v>
+        <v>1837.082342403616</v>
       </c>
       <c r="R4">
-        <v>18548.40490737425</v>
+        <v>16533.74108163255</v>
       </c>
       <c r="S4">
-        <v>0.02736482559631596</v>
+        <v>0.03025172485954251</v>
       </c>
       <c r="T4">
-        <v>0.02736482559631596</v>
+        <v>0.03025172485954252</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>81.03634266666667</v>
+        <v>68.443746</v>
       </c>
       <c r="H5">
-        <v>243.109028</v>
+        <v>205.331238</v>
       </c>
       <c r="I5">
-        <v>0.1632931649012984</v>
+        <v>0.1596169534001499</v>
       </c>
       <c r="J5">
-        <v>0.1632931649012984</v>
+        <v>0.1596169534001499</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N5">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O5">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P5">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q5">
-        <v>4892.743956879019</v>
+        <v>3748.153309631094</v>
       </c>
       <c r="R5">
-        <v>44034.69561191116</v>
+        <v>33733.37978667984</v>
       </c>
       <c r="S5">
-        <v>0.06496525019937097</v>
+        <v>0.06172184013591242</v>
       </c>
       <c r="T5">
-        <v>0.06496525019937097</v>
+        <v>0.06172184013591242</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>535.097442</v>
       </c>
       <c r="I6">
-        <v>0.3594179761796791</v>
+        <v>0.4159650732941736</v>
       </c>
       <c r="J6">
-        <v>0.3594179761796791</v>
+        <v>0.4159650732941736</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N6">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O6">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P6">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q6">
-        <v>2739.492117606303</v>
+        <v>1680.893092450799</v>
       </c>
       <c r="R6">
-        <v>24655.42905845673</v>
+        <v>15128.03783205719</v>
       </c>
       <c r="S6">
-        <v>0.03637463811881597</v>
+        <v>0.02767971482682465</v>
       </c>
       <c r="T6">
-        <v>0.03637463811881599</v>
+        <v>0.02767971482682465</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>535.097442</v>
       </c>
       <c r="I7">
-        <v>0.3594179761796791</v>
+        <v>0.4159650732941736</v>
       </c>
       <c r="J7">
-        <v>0.3594179761796791</v>
+        <v>0.4159650732941736</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>151.777694</v>
       </c>
       <c r="O7">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P7">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q7">
         <v>9023.983979117638</v>
@@ -883,10 +883,10 @@
         <v>81215.85581205874</v>
       </c>
       <c r="S7">
-        <v>0.1198193451701582</v>
+        <v>0.1486003507692574</v>
       </c>
       <c r="T7">
-        <v>0.1198193451701582</v>
+        <v>0.1486003507692574</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>535.097442</v>
       </c>
       <c r="I8">
-        <v>0.3594179761796791</v>
+        <v>0.4159650732941736</v>
       </c>
       <c r="J8">
-        <v>0.3594179761796791</v>
+        <v>0.4159650732941736</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N8">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O8">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P8">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q8">
-        <v>4536.238146484909</v>
+        <v>4787.474481420811</v>
       </c>
       <c r="R8">
-        <v>40826.14331836418</v>
+        <v>43087.2703327873</v>
       </c>
       <c r="S8">
-        <v>0.06023161006330375</v>
+        <v>0.07883661904589991</v>
       </c>
       <c r="T8">
-        <v>0.06023161006330377</v>
+        <v>0.07883661904589991</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>535.097442</v>
       </c>
       <c r="I9">
-        <v>0.3594179761796791</v>
+        <v>0.4159650732941736</v>
       </c>
       <c r="J9">
-        <v>0.3594179761796791</v>
+        <v>0.4159650732941736</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N9">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O9">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P9">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q9">
-        <v>10769.22069585553</v>
+        <v>9767.764845441745</v>
       </c>
       <c r="R9">
-        <v>96922.98626269975</v>
+        <v>87909.88360897571</v>
       </c>
       <c r="S9">
-        <v>0.1429923828274012</v>
+        <v>0.1608483886521916</v>
       </c>
       <c r="T9">
-        <v>0.1429923828274012</v>
+        <v>0.1608483886521916</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>90.63043199999998</v>
+        <v>88.88346833333333</v>
       </c>
       <c r="H10">
-        <v>271.891296</v>
+        <v>266.650405</v>
       </c>
       <c r="I10">
-        <v>0.1826258391068707</v>
+        <v>0.2072842188241036</v>
       </c>
       <c r="J10">
-        <v>0.1826258391068707</v>
+        <v>0.2072842188241036</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N10">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O10">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P10">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q10">
-        <v>1391.978364639168</v>
+        <v>837.6246804478428</v>
       </c>
       <c r="R10">
-        <v>12527.80528175251</v>
+        <v>7538.622124030585</v>
       </c>
       <c r="S10">
-        <v>0.0184825168714895</v>
+        <v>0.01379338899709653</v>
       </c>
       <c r="T10">
-        <v>0.01848251687148951</v>
+        <v>0.01379338899709653</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>90.63043199999998</v>
+        <v>88.88346833333333</v>
       </c>
       <c r="H11">
-        <v>271.891296</v>
+        <v>266.650405</v>
       </c>
       <c r="I11">
-        <v>0.1826258391068707</v>
+        <v>0.2072842188241036</v>
       </c>
       <c r="J11">
-        <v>0.1826258391068707</v>
+        <v>0.2072842188241036</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>151.777694</v>
       </c>
       <c r="O11">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P11">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q11">
-        <v>4585.225991727935</v>
+        <v>4496.842619451785</v>
       </c>
       <c r="R11">
-        <v>41267.03392555142</v>
+        <v>40471.58357506606</v>
       </c>
       <c r="S11">
-        <v>0.06088206462438226</v>
+        <v>0.07405070666692619</v>
       </c>
       <c r="T11">
-        <v>0.06088206462438227</v>
+        <v>0.07405070666692619</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>90.63043199999998</v>
+        <v>88.88346833333333</v>
       </c>
       <c r="H12">
-        <v>271.891296</v>
+        <v>266.650405</v>
       </c>
       <c r="I12">
-        <v>0.1826258391068707</v>
+        <v>0.2072842188241036</v>
       </c>
       <c r="J12">
-        <v>0.1826258391068707</v>
+        <v>0.2072842188241036</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N12">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O12">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P12">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q12">
-        <v>2304.932843637887</v>
+        <v>2385.700078525182</v>
       </c>
       <c r="R12">
-        <v>20744.39559274099</v>
+        <v>21471.30070672664</v>
       </c>
       <c r="S12">
-        <v>0.03060461372992005</v>
+        <v>0.03928595942983394</v>
       </c>
       <c r="T12">
-        <v>0.03060461372992005</v>
+        <v>0.03928595942983395</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>90.63043199999998</v>
+        <v>88.88346833333333</v>
       </c>
       <c r="H13">
-        <v>271.891296</v>
+        <v>266.650405</v>
       </c>
       <c r="I13">
-        <v>0.1826258391068707</v>
+        <v>0.2072842188241036</v>
       </c>
       <c r="J13">
-        <v>0.1826258391068707</v>
+        <v>0.2072842188241036</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N13">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O13">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P13">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q13">
-        <v>5472.00779163168</v>
+        <v>4867.484401059431</v>
       </c>
       <c r="R13">
-        <v>49248.07012468512</v>
+        <v>43807.35960953488</v>
       </c>
       <c r="S13">
-        <v>0.07265664388107884</v>
+        <v>0.08015416373024692</v>
       </c>
       <c r="T13">
-        <v>0.07265664388107886</v>
+        <v>0.08015416373024692</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>146.2303303333333</v>
+        <v>93.106949</v>
       </c>
       <c r="H14">
-        <v>438.690991</v>
+        <v>279.320847</v>
       </c>
       <c r="I14">
-        <v>0.2946630198121519</v>
+        <v>0.2171337544815728</v>
       </c>
       <c r="J14">
-        <v>0.2946630198121519</v>
+        <v>0.2171337544815728</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N14">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O14">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P14">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q14">
-        <v>2245.928344223701</v>
+        <v>877.4261385831977</v>
       </c>
       <c r="R14">
-        <v>20213.3550980133</v>
+        <v>7896.83524724878</v>
       </c>
       <c r="S14">
-        <v>0.02982115927141688</v>
+        <v>0.01444881022276896</v>
       </c>
       <c r="T14">
-        <v>0.02982115927141688</v>
+        <v>0.01444881022276896</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>146.2303303333333</v>
+        <v>93.106949</v>
       </c>
       <c r="H15">
-        <v>438.690991</v>
+        <v>279.320847</v>
       </c>
       <c r="I15">
-        <v>0.2946630198121519</v>
+        <v>0.2171337544815728</v>
       </c>
       <c r="J15">
-        <v>0.2946630198121519</v>
+        <v>0.2171337544815728</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>151.777694</v>
       </c>
       <c r="O15">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P15">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q15">
-        <v>7398.167443617195</v>
+        <v>4710.519338198535</v>
       </c>
       <c r="R15">
-        <v>66583.50699255476</v>
+        <v>42394.67404378682</v>
       </c>
       <c r="S15">
-        <v>0.09823195393572401</v>
+        <v>0.077569378179472</v>
       </c>
       <c r="T15">
-        <v>0.09823195393572401</v>
+        <v>0.077569378179472</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>146.2303303333333</v>
+        <v>93.106949</v>
       </c>
       <c r="H16">
-        <v>438.690991</v>
+        <v>279.320847</v>
       </c>
       <c r="I16">
-        <v>0.2946630198121519</v>
+        <v>0.2171337544815728</v>
       </c>
       <c r="J16">
-        <v>0.2946630198121519</v>
+        <v>0.2171337544815728</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N16">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O16">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P16">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q16">
-        <v>3718.961541762459</v>
+        <v>2499.061520726437</v>
       </c>
       <c r="R16">
-        <v>33470.65387586213</v>
+        <v>22491.55368653794</v>
       </c>
       <c r="S16">
-        <v>0.04937991220708601</v>
+        <v>0.04115271253065921</v>
       </c>
       <c r="T16">
-        <v>0.04937991220708601</v>
+        <v>0.04115271253065922</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>146.2303303333333</v>
+        <v>93.106949</v>
       </c>
       <c r="H17">
-        <v>438.690991</v>
+        <v>279.320847</v>
       </c>
       <c r="I17">
-        <v>0.2946630198121519</v>
+        <v>0.2171337544815728</v>
       </c>
       <c r="J17">
-        <v>0.2946630198121519</v>
+        <v>0.2171337544815728</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N17">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O17">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P17">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q17">
-        <v>8828.971563954086</v>
+        <v>5098.772925783511</v>
       </c>
       <c r="R17">
-        <v>79460.74407558677</v>
+        <v>45888.9563320516</v>
       </c>
       <c r="S17">
-        <v>0.117229994397925</v>
+        <v>0.08396285354867265</v>
       </c>
       <c r="T17">
-        <v>0.117229994397925</v>
+        <v>0.08396285354867265</v>
       </c>
     </row>
   </sheetData>
